--- a/config_1.5/banner_style_ui.xlsx
+++ b/config_1.5/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1057,13 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1099,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,15 +1154,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,9 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1199,10 +1187,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -1211,44 +1199,38 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1557,7 +1539,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1604,9 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,8 +1602,8 @@
     <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="25.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="39" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="34" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="34" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
   </cols>
@@ -1657,10 +1639,10 @@
       <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -1689,10 +1671,10 @@
       <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="39">
+      <c r="K2" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="34">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
@@ -1718,10 +1700,10 @@
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="39">
+      <c r="K3" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="34">
         <v>-1</v>
       </c>
       <c r="M3" t="s">
@@ -1747,10 +1729,10 @@
       <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="39">
+      <c r="K4" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="34">
         <v>-1</v>
       </c>
       <c r="M4" t="s">
@@ -1776,10 +1758,10 @@
       <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="39">
+      <c r="K5" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="34">
         <v>-1</v>
       </c>
       <c r="M5" t="s">
@@ -1805,10 +1787,10 @@
       <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="39">
+      <c r="K6" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="34">
         <v>-1</v>
       </c>
       <c r="M6" t="s">
@@ -1831,10 +1813,10 @@
       <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="39">
+      <c r="K7" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="34">
         <v>-1</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -1857,10 +1839,10 @@
       <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="39">
+      <c r="K8" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="34">
         <v>-1</v>
       </c>
       <c r="N8">
@@ -1883,10 +1865,10 @@
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="39">
+      <c r="K9" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -1909,10 +1891,10 @@
       <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="39">
+      <c r="K10" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="34">
         <v>-1</v>
       </c>
       <c r="M10" s="8"/>
@@ -1936,10 +1918,10 @@
       <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="39">
+      <c r="K11" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="34">
         <v>-1</v>
       </c>
       <c r="M11" s="8"/>
@@ -1963,10 +1945,10 @@
       <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="39">
+      <c r="K12" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="34">
         <v>-1</v>
       </c>
       <c r="M12" s="8"/>
@@ -1996,10 +1978,10 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="40">
+      <c r="K13" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="30">
         <v>-1</v>
       </c>
       <c r="M13" s="9"/>
@@ -2026,10 +2008,10 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="39">
+      <c r="K14" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2055,10 +2037,10 @@
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="39">
+      <c r="K15" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2084,10 +2066,10 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="39">
+      <c r="K16" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2113,10 +2095,10 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="39">
+      <c r="K17" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2145,10 +2127,10 @@
       <c r="J18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="41">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="41">
+      <c r="K18" s="35">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="35">
         <v>-1</v>
       </c>
     </row>
@@ -2171,10 +2153,10 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="39">
+      <c r="K19" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2200,10 +2182,10 @@
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="39">
+      <c r="K20" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2227,10 +2209,10 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="40">
+      <c r="K21" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="30">
         <v>-1</v>
       </c>
     </row>
@@ -2254,10 +2236,10 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L22" s="39">
+      <c r="K22" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2284,10 +2266,10 @@
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="39">
+      <c r="K23" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2314,10 +2296,10 @@
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="34">
         <v>1572305400</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="36">
         <v>1573487999</v>
       </c>
     </row>
@@ -2345,10 +2327,10 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L25" s="39">
+      <c r="K25" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2376,10 +2358,10 @@
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L26" s="39">
+      <c r="K26" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2408,10 +2390,10 @@
       <c r="J27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="41">
-        <v>-1</v>
-      </c>
-      <c r="L27" s="41">
+      <c r="K27" s="35">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="35">
         <v>-1</v>
       </c>
     </row>
@@ -2437,10 +2419,10 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="34">
         <v>1571095800</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="34">
         <v>1571673599</v>
       </c>
     </row>
@@ -2468,10 +2450,10 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="39">
+      <c r="K29" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2495,10 +2477,10 @@
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="30">
         <v>1571700600</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="30">
         <v>1572278399</v>
       </c>
     </row>
@@ -2525,10 +2507,10 @@
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="41">
-        <v>-1</v>
-      </c>
-      <c r="L31" s="41">
+      <c r="K31" s="35">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="35">
         <v>-1</v>
       </c>
     </row>
@@ -2553,10 +2535,10 @@
       <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="36">
         <v>1574119800</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="36">
         <v>1574697599</v>
       </c>
     </row>
@@ -2578,16 +2560,16 @@
         <v>-10</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="26" t="s">
         <v>126</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L33" s="39">
+      <c r="K33" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2615,10 +2597,10 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="30">
         <v>1574724600</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="34">
         <v>1575302399</v>
       </c>
     </row>
@@ -2646,10 +2628,10 @@
       <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="30">
         <v>1575329400</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="34">
         <v>1575907199</v>
       </c>
     </row>
@@ -2677,10 +2659,10 @@
       <c r="J36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="39">
+      <c r="K36" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2710,10 +2692,10 @@
       <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="41">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="41">
+      <c r="K37" s="35">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="35">
         <v>-1</v>
       </c>
     </row>
@@ -2741,10 +2723,10 @@
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="30">
         <v>1576539000</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="34">
         <v>1577289599</v>
       </c>
     </row>
@@ -2771,10 +2753,10 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="40">
-        <v>-1</v>
-      </c>
-      <c r="L39" s="39">
+      <c r="K39" s="30">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -2802,10 +2784,10 @@
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="30">
         <v>1577835000</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="34">
         <v>1578326399</v>
       </c>
     </row>
@@ -2833,10 +2815,10 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="40">
+      <c r="K41" s="30">
         <v>1578353400</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="34">
         <v>1578931199</v>
       </c>
     </row>
@@ -2864,10 +2846,10 @@
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="30">
         <v>1578958200</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="34">
         <v>1581350399</v>
       </c>
     </row>
@@ -2894,10 +2876,10 @@
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="37">
         <v>1585611000</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="37">
         <v>1586188799</v>
       </c>
     </row>
@@ -2927,10 +2909,10 @@
       <c r="J44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="41">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="41">
+      <c r="K44" s="35">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="35">
         <v>-1</v>
       </c>
     </row>
@@ -2958,10 +2940,10 @@
       <c r="J45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="30">
         <v>1581982200</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="34">
         <v>1582559999</v>
       </c>
     </row>
@@ -2989,10 +2971,10 @@
       <c r="J46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="30">
         <v>1582587000</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="34">
         <v>1583164799</v>
       </c>
     </row>
@@ -3020,10 +3002,10 @@
       <c r="J47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="30">
         <v>1583191800</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="34">
         <v>1583769599</v>
       </c>
     </row>
@@ -3051,10 +3033,10 @@
       <c r="J48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="30">
         <v>1583796600</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="34">
         <v>1584374399</v>
       </c>
     </row>
@@ -3082,10 +3064,10 @@
       <c r="J49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="30">
         <v>1583796600</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="34">
         <v>1584374399</v>
       </c>
     </row>
@@ -3115,10 +3097,10 @@
       <c r="J50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="40">
+      <c r="K50" s="30">
         <v>1584401400</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="30">
         <v>1584979199</v>
       </c>
     </row>
@@ -3144,10 +3126,10 @@
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="34">
         <v>1587425400</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="34">
         <v>1588003199</v>
       </c>
     </row>
@@ -3173,10 +3155,10 @@
       <c r="J52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="37">
         <v>1585006200</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="37">
         <v>1585583999</v>
       </c>
     </row>
@@ -3187,7 +3169,7 @@
       <c r="B53" s="4">
         <v>54</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E53" s="4">
@@ -3202,10 +3184,10 @@
       <c r="J53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="38">
         <v>1585006200</v>
       </c>
-      <c r="L53" s="47">
+      <c r="L53" s="42">
         <v>-1</v>
       </c>
     </row>
@@ -3226,16 +3208,16 @@
       <c r="F54" s="1">
         <v>101</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="19" t="s">
         <v>117</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="18">
-        <v>-1</v>
-      </c>
-      <c r="L54" s="18">
+      <c r="K54" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -3261,10 +3243,10 @@
       <c r="J55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="37">
         <v>1585611000</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="37">
         <v>1586188799</v>
       </c>
     </row>
@@ -3275,7 +3257,7 @@
       <c r="B56">
         <v>57</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="26" t="s">
         <v>116</v>
       </c>
       <c r="E56">
@@ -3293,10 +3275,10 @@
       <c r="J56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="37">
         <v>1586215800</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="43">
         <v>1586793599</v>
       </c>
     </row>
@@ -3325,10 +3307,10 @@
       <c r="J57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="37">
         <v>1586215800</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="43">
         <v>1586793599</v>
       </c>
     </row>
@@ -3357,10 +3339,10 @@
       <c r="J58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="34">
         <v>1586820600</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="34">
         <v>1587398399</v>
       </c>
     </row>
@@ -3383,16 +3365,16 @@
       <c r="G59" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H59" s="26" t="s">
         <v>127</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="39">
+      <c r="K59" s="34">
         <v>1589844600</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="34">
         <v>1590422399</v>
       </c>
     </row>
@@ -3421,69 +3403,69 @@
       <c r="J60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="39">
+      <c r="K60" s="34">
         <v>1591054200</v>
       </c>
-      <c r="L60" s="39">
+      <c r="L60" s="34">
         <v>1591631999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+    <row r="61" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
         <v>60</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="20">
         <v>62</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="23">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
         <v>100</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="J61" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="K61" s="43">
-        <v>-1</v>
-      </c>
-      <c r="L61" s="43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23">
+      <c r="K61" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L61" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="20">
         <v>63</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
+      <c r="D62" s="23"/>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20">
         <v>99</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J62" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="27">
-        <v>-1</v>
-      </c>
-      <c r="L62" s="27">
+      <c r="J62" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L62" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -3513,10 +3495,10 @@
       <c r="J63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="40">
+      <c r="K63" s="30">
         <v>1588030200</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="34">
         <v>1588607999</v>
       </c>
     </row>
@@ -3545,10 +3527,10 @@
       <c r="J64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K64" s="40">
+      <c r="K64" s="30">
         <v>1588608000</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="34">
         <v>1589212799</v>
       </c>
     </row>
@@ -3568,7 +3550,7 @@
       <c r="F65" s="1">
         <v>100</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="26" t="s">
         <v>125</v>
       </c>
       <c r="H65" s="9" t="s">
@@ -3577,10 +3559,10 @@
       <c r="J65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K65" s="39">
+      <c r="K65" s="34">
         <v>1589239800</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L65" s="34">
         <v>1589817599</v>
       </c>
     </row>
@@ -3600,7 +3582,7 @@
       <c r="F66" s="1">
         <v>100</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="26" t="s">
         <v>119</v>
       </c>
       <c r="H66" s="9" t="s">
@@ -3609,10 +3591,10 @@
       <c r="J66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="39">
+      <c r="K66" s="34">
         <v>1589844600</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="34">
         <v>1590422399</v>
       </c>
     </row>
@@ -3623,7 +3605,7 @@
       <c r="B67">
         <v>68</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="26" t="s">
         <v>130</v>
       </c>
       <c r="E67">
@@ -3632,7 +3614,7 @@
       <c r="F67" s="1">
         <v>100</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="26" t="s">
         <v>119</v>
       </c>
       <c r="H67" s="9" t="s">
@@ -3641,10 +3623,10 @@
       <c r="J67" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="39">
+      <c r="K67" s="34">
         <v>1590449400</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="34">
         <v>1591027199</v>
       </c>
     </row>
@@ -3655,7 +3637,7 @@
       <c r="B68">
         <v>69</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="26" t="s">
         <v>133</v>
       </c>
       <c r="E68">
@@ -3673,10 +3655,10 @@
       <c r="J68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="39">
+      <c r="K68" s="34">
         <v>1591054200</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="34">
         <v>1591631999</v>
       </c>
     </row>
@@ -3687,7 +3669,7 @@
       <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="26" t="s">
         <v>136</v>
       </c>
       <c r="E69">
@@ -3696,16 +3678,16 @@
       <c r="F69" s="1">
         <v>-100</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H69" s="19" t="s">
         <v>137</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K69" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L69" s="39">
+      <c r="K69" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L69" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -3716,7 +3698,7 @@
       <c r="B70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="19" t="s">
         <v>138</v>
       </c>
       <c r="D70" s="9"/>
@@ -3726,7 +3708,7 @@
       <c r="F70" s="1">
         <v>100</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="19" t="s">
         <v>139</v>
       </c>
       <c r="H70" s="9" t="s">
@@ -3735,10 +3717,10 @@
       <c r="J70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="30">
         <v>1597102200</v>
       </c>
-      <c r="L70" s="39">
+      <c r="L70" s="34">
         <v>1597679999</v>
       </c>
     </row>
@@ -3749,7 +3731,7 @@
       <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="26" t="s">
         <v>140</v>
       </c>
       <c r="E71">
@@ -3758,19 +3740,19 @@
       <c r="F71" s="1">
         <v>-1000</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H71" s="22" t="s">
+      <c r="H71" s="19" t="s">
         <v>141</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K71" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L71" s="39">
+      <c r="K71" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L71" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -3781,7 +3763,7 @@
       <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E72">
@@ -3790,16 +3772,16 @@
       <c r="F72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="H72" s="19" t="s">
         <v>143</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K72" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L72" s="39">
+      <c r="K72" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L72" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -3810,7 +3792,7 @@
       <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E73">
@@ -3822,16 +3804,16 @@
       <c r="G73" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="19" t="s">
         <v>148</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K73" s="39">
+      <c r="K73" s="34">
         <v>1597707000</v>
       </c>
-      <c r="L73" s="39">
+      <c r="L73" s="34">
         <v>1598284799</v>
       </c>
     </row>
@@ -3842,7 +3824,7 @@
       <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="26" t="s">
         <v>150</v>
       </c>
       <c r="E74">
@@ -3854,330 +3836,330 @@
       <c r="G74" t="s">
         <v>151</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="19" t="s">
         <v>152</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K74" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L74" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23">
+      <c r="K74" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="1">
         <v>1</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="1">
         <v>100</v>
       </c>
-      <c r="H75" s="28" t="s">
+      <c r="H75" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J75" s="26" t="s">
+      <c r="J75" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="30">
         <v>1606780800</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="30">
         <v>1607356799</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>100</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="19" t="s">
         <v>159</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="39">
+      <c r="K76" s="30">
         <v>1602547200</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="30">
         <v>1603123199</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>0</v>
       </c>
       <c r="F77" s="1">
         <v>100</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="19" t="s">
         <v>165</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K77" s="39">
+      <c r="K77" s="30">
         <v>1599521400</v>
       </c>
-      <c r="L77" s="39">
+      <c r="L77" s="30">
         <v>1600099199</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="19" t="s">
         <v>166</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K78" s="39">
+      <c r="K78" s="30">
         <v>1599521400</v>
       </c>
-      <c r="L78" s="39">
+      <c r="L78" s="30">
         <v>1600099199</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23">
+    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="1">
         <v>100</v>
       </c>
-      <c r="G79" s="28" t="s">
+      <c r="G79" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H79" s="28" t="s">
+      <c r="H79" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="30">
         <v>1605571200</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="30">
         <v>1606147199</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
       </c>
-      <c r="G80" s="30" t="s">
+      <c r="G80" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="19" t="s">
         <v>171</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K80" s="39">
+      <c r="K80" s="30">
         <v>1601337600</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L80" s="30">
         <v>1601913599</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1">
         <v>100</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="27" t="s">
         <v>175</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K81" s="39">
+      <c r="K81" s="30">
         <v>1603152000</v>
       </c>
-      <c r="L81" s="39">
+      <c r="L81" s="30">
         <v>1603727999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32">
+    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="1">
         <v>100</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J82" s="34" t="s">
+      <c r="J82" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K82" s="44">
+      <c r="K82" s="30">
         <v>1603756800</v>
       </c>
-      <c r="L82" s="44">
+      <c r="L82" s="30">
         <v>1604332799</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="1">
         <v>100</v>
       </c>
-      <c r="H83" s="37" t="s">
+      <c r="H83" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="45">
+      <c r="J83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="30">
         <v>1604359800</v>
       </c>
-      <c r="L83" s="45">
+      <c r="L83" s="30">
         <v>1604937599</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="35">
+    <row r="84" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="35">
+      <c r="B84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="1">
         <v>100</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J84" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="46">
+      <c r="J84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="30">
         <v>1604966400</v>
       </c>
-      <c r="L84" s="46">
+      <c r="L84" s="30">
         <v>1605542399</v>
       </c>
     </row>
@@ -4188,7 +4170,7 @@
       <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="26" t="s">
         <v>183</v>
       </c>
       <c r="E85">
@@ -4200,16 +4182,16 @@
       <c r="G85" t="s">
         <v>184</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L85" s="39">
+      <c r="J85" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L85" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -4232,13 +4214,13 @@
       <c r="H86" t="s">
         <v>190</v>
       </c>
-      <c r="J86" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="39">
+      <c r="J86" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="34">
         <v>1606176000</v>
       </c>
-      <c r="L86" s="39">
+      <c r="L86" s="34">
         <v>1606751999</v>
       </c>
     </row>
@@ -4249,7 +4231,7 @@
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="26" t="s">
         <v>191</v>
       </c>
       <c r="E87">
@@ -4261,43 +4243,46 @@
       <c r="H87" t="s">
         <v>190</v>
       </c>
-      <c r="J87" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="49">
+      <c r="J87" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="40">
         <v>1609200000</v>
       </c>
-      <c r="L87" s="49">
+      <c r="L87" s="40">
         <v>1609775999</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23">
+    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E88" s="23">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31">
         <v>1</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="31">
         <v>100</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="G88" s="31"/>
+      <c r="H88" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J88" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="48">
-        <v>1607990400</v>
-      </c>
-      <c r="L88" s="43">
-        <v>1608566399</v>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="41">
+        <v>1609804800</v>
+      </c>
+      <c r="L88" s="41">
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>
@@ -4308,14 +4293,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4332,13 +4309,31 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4346,54 +4341,44 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.5/banner_style_ui.xlsx
+++ b/config_1.5/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="196">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -900,6 +900,42 @@
   </si>
   <si>
     <t>冬至</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_cjj_cpl_type_plat</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","panel"</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1135,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,6 +1267,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1584,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M84" sqref="M84"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4285,6 +4324,38 @@
         <v>1610380799</v>
       </c>
     </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>110</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J89" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="29">
+        <v>1607990400</v>
+      </c>
+      <c r="L89" s="44">
+        <v>1608566399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4293,6 +4364,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4309,28 +4396,10 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4342,13 +4411,15 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4360,13 +4431,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4378,7 +4449,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.5/banner_style_ui.xlsx
+++ b/config_1.5/banner_style_ui.xlsx
@@ -1626,8 +1626,8 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:XFD89"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3460,7 +3460,7 @@
         <v>110</v>
       </c>
       <c r="E61" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="20">
         <v>100</v>
@@ -4364,6 +4364,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
@@ -4371,15 +4379,29 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4396,60 +4418,38 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>